--- a/network analysis sandbox/data/2-15/Staff survey network data (2-15-23).xlsx
+++ b/network analysis sandbox/data/2-15/Staff survey network data (2-15-23).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\Methods Corner\network analysis sandbox\data\2-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3CEB4AE-DACF-40A6-A8CD-763AD9112BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA9EC2-57F3-46F9-971C-A6D1D113441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,23 +1245,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="48.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" style="2" customWidth="1"/>
     <col min="12" max="12" width="52.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="37.88671875" style="1" customWidth="1"/>
     <col min="14" max="14" width="46.109375" style="1" customWidth="1"/>
@@ -2449,14 +2452,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2685,27 +2686,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
-    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2730,9 +2724,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
+    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>